--- a/files/Quinnipiac - Trump approval.xlsx
+++ b/files/Quinnipiac - Trump approval.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bobba\Dropbox\nonwork\politics\Approval polls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bobba\Dropbox\work\GitHub\badgettrg\politics-approval_ratings\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B713BE-8F73-4EA6-B82F-88864CDCD2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E986AD-0FCB-482E-A696-ACDB83C5BB2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21384" yWindow="420" windowWidth="19068" windowHeight="11376" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22584" yWindow="720" windowWidth="19068" windowHeight="11376" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plot" sheetId="2" r:id="rId1"/>
@@ -144,10 +144,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -157,6 +160,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FF6600FF"/>
     </mruColors>
   </colors>
@@ -393,7 +397,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -404,6 +408,64 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Data!$A$2:$A$5</c:f>
@@ -467,9 +529,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="6600FF"/>
+                <a:srgbClr val="0000FF"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -478,6 +540,64 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Data!$A$2:$A$5</c:f>
@@ -1763,53 +1883,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{916D6670-26A0-412D-9F39-E2C2A58DD791}">
-  <dimension ref="B18:C23"/>
+  <dimension ref="A17:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-      <c r="C19" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="2" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="5" t="s">
         <v>21</v>
       </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
